--- a/main/static/records/SGB_RECORDS.xlsx
+++ b/main/static/records/SGB_RECORDS.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="827" uniqueCount="523">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="837" uniqueCount="527">
   <si>
     <t xml:space="preserve">ID NO</t>
   </si>
@@ -78,9 +78,6 @@
     <t xml:space="preserve">St. Jerome</t>
   </si>
   <si>
-    <t xml:space="preserve">ca</t>
-  </si>
-  <si>
     <t xml:space="preserve">Jude Ivan</t>
   </si>
   <si>
@@ -1594,6 +1591,21 @@
   </si>
   <si>
     <t xml:space="preserve">09095251319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Merilo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maricel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09063740103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acosta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elda</t>
   </si>
 </sst>
 </file>
@@ -2043,22 +2055,21 @@
   </sheetPr>
   <dimension ref="A1:W92"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A67" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A80" activeCellId="0" sqref="A80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.5510204081633"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.219387755102"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="26.7295918367347"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="21.5969387755102"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="37.9336734693878"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="30.5102040816327"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="29.1581632653061"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="19.0357142857143"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="17.0102040816327"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.0102040816327"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.6785714285714"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="25.9183673469388"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="21.0612244897959"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="37.1224489795918"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="29.8316326530612"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="28.3469387755102"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="18.4948979591837"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="16.469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2134,14 +2145,12 @@
       <c r="W2" s="14"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="A3" s="15"/>
       <c r="B3" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D3" s="11" t="s">
         <v>11</v>
@@ -2150,7 +2159,7 @@
         <v>12</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G3" s="12" t="s">
         <v>14</v>
@@ -2181,25 +2190,25 @@
         <v>3836205</v>
       </c>
       <c r="B4" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="D4" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="E4" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="F4" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="G4" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="17" t="s">
+      <c r="H4" s="18" t="s">
         <v>25</v>
-      </c>
-      <c r="H4" s="18" t="s">
-        <v>26</v>
       </c>
       <c r="I4" s="18"/>
       <c r="J4" s="14"/>
@@ -2222,28 +2231,28 @@
         <v>3839496</v>
       </c>
       <c r="B5" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="D5" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="E5" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="F5" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="G5" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="G5" s="12" t="s">
+      <c r="H5" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="H5" s="13" t="s">
+      <c r="I5" s="13" t="s">
         <v>33</v>
-      </c>
-      <c r="I5" s="13" t="s">
-        <v>34</v>
       </c>
       <c r="J5" s="14"/>
       <c r="K5" s="14"/>
@@ -2263,28 +2272,28 @@
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="15"/>
       <c r="B6" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="D6" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="E6" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="F6" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="G6" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="G6" s="12" t="s">
+      <c r="H6" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="H6" s="13" t="s">
+      <c r="I6" s="11" t="s">
         <v>41</v>
-      </c>
-      <c r="I6" s="11" t="s">
-        <v>42</v>
       </c>
       <c r="J6" s="14"/>
       <c r="K6" s="14"/>
@@ -2303,31 +2312,31 @@
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="8" t="n">
-        <v>3829521</v>
+        <v>3834139</v>
       </c>
       <c r="B7" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="D7" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="E7" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="F7" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="G7" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="G7" s="12" t="s">
+      <c r="H7" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="H7" s="13" t="s">
+      <c r="I7" s="13" t="s">
         <v>49</v>
-      </c>
-      <c r="I7" s="13" t="s">
-        <v>50</v>
       </c>
       <c r="J7" s="14"/>
       <c r="K7" s="14"/>
@@ -2349,28 +2358,28 @@
         <v>8069763</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D8" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="E8" s="19" t="s">
+      <c r="F8" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="F8" s="19" t="s">
+      <c r="G8" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="G8" s="20" t="s">
-        <v>48</v>
-      </c>
       <c r="H8" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="I8" s="19" t="s">
         <v>33</v>
-      </c>
-      <c r="I8" s="19" t="s">
-        <v>34</v>
       </c>
       <c r="J8" s="14"/>
       <c r="K8" s="14"/>
@@ -2392,28 +2401,28 @@
         <v>1424299</v>
       </c>
       <c r="B9" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="D9" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="D9" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="E9" s="10" t="s">
+      <c r="F9" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="G9" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="G9" s="12" t="s">
-        <v>56</v>
-      </c>
       <c r="H9" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="I9" s="11" t="s">
         <v>33</v>
-      </c>
-      <c r="I9" s="11" t="s">
-        <v>34</v>
       </c>
       <c r="J9" s="14"/>
       <c r="K9" s="14"/>
@@ -2435,22 +2444,22 @@
         <v>3176345</v>
       </c>
       <c r="B10" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="D10" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="D10" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="E10" s="10" t="s">
+      <c r="F10" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="F10" s="10" t="s">
+      <c r="G10" s="12" t="s">
         <v>60</v>
-      </c>
-      <c r="G10" s="12" t="s">
-        <v>61</v>
       </c>
       <c r="H10" s="13" t="s">
         <v>15</v>
@@ -2478,28 +2487,28 @@
         <v>3832252</v>
       </c>
       <c r="B11" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="D11" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="E11" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="F11" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="G11" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="G11" s="12" t="s">
+      <c r="H11" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="H11" s="13" t="s">
+      <c r="I11" s="13" t="s">
         <v>68</v>
-      </c>
-      <c r="I11" s="13" t="s">
-        <v>69</v>
       </c>
       <c r="J11" s="14"/>
       <c r="K11" s="14"/>
@@ -2521,26 +2530,26 @@
         <v>8082320</v>
       </c>
       <c r="B12" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12" s="11" t="s">
         <v>70</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>71</v>
       </c>
       <c r="D12" s="15"/>
       <c r="E12" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F12" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="G12" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="G12" s="21" t="s">
-        <v>73</v>
-      </c>
       <c r="H12" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="I12" s="11" t="s">
         <v>33</v>
-      </c>
-      <c r="I12" s="11" t="s">
-        <v>34</v>
       </c>
       <c r="J12" s="14"/>
       <c r="K12" s="14"/>
@@ -2562,22 +2571,22 @@
         <v>3844073</v>
       </c>
       <c r="B13" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="C13" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="D13" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="E13" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="E13" s="11" t="s">
+      <c r="F13" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="F13" s="11" t="s">
+      <c r="G13" s="21" t="s">
         <v>78</v>
-      </c>
-      <c r="G13" s="21" t="s">
-        <v>79</v>
       </c>
       <c r="H13" s="13" t="s">
         <v>15</v>
@@ -2605,28 +2614,28 @@
         <v>3846999</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C14" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="E14" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="D14" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="E14" s="16" t="s">
+      <c r="F14" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="F14" s="16" t="s">
+      <c r="G14" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="H14" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="G14" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="H14" s="13" t="s">
+      <c r="I14" s="13" t="s">
         <v>83</v>
-      </c>
-      <c r="I14" s="13" t="s">
-        <v>84</v>
       </c>
       <c r="J14" s="14"/>
       <c r="K14" s="14"/>
@@ -2648,28 +2657,28 @@
         <v>3834868</v>
       </c>
       <c r="B15" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C15" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="D15" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="E15" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="E15" s="10" t="s">
+      <c r="F15" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="F15" s="10" t="s">
+      <c r="G15" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="G15" s="12" t="s">
+      <c r="H15" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="H15" s="13" t="s">
+      <c r="I15" s="23" t="s">
         <v>91</v>
-      </c>
-      <c r="I15" s="23" t="s">
-        <v>92</v>
       </c>
       <c r="J15" s="14"/>
       <c r="K15" s="14"/>
@@ -2687,27 +2696,29 @@
       <c r="W15" s="14"/>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="15"/>
+      <c r="A16" s="15" t="n">
+        <v>8083245</v>
+      </c>
       <c r="B16" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C16" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="D16" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="D16" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16" s="11" t="s">
+      <c r="F16" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="F16" s="11" t="s">
+      <c r="G16" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="G16" s="21" t="s">
-        <v>97</v>
-      </c>
       <c r="H16" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I16" s="15"/>
       <c r="J16" s="14"/>
@@ -2730,28 +2741,28 @@
         <v>3852305</v>
       </c>
       <c r="B17" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="C17" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="D17" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="E17" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="F17" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="F17" s="16" t="s">
+      <c r="G17" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="G17" s="12" t="s">
-        <v>103</v>
-      </c>
       <c r="H17" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="I17" s="23" t="s">
         <v>91</v>
-      </c>
-      <c r="I17" s="23" t="s">
-        <v>92</v>
       </c>
       <c r="J17" s="14"/>
       <c r="K17" s="14"/>
@@ -2773,28 +2784,28 @@
         <v>3854147</v>
       </c>
       <c r="B18" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="C18" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="D18" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="D18" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="E18" s="10" t="s">
+      <c r="F18" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="F18" s="10" t="s">
+      <c r="G18" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="G18" s="12" t="s">
+      <c r="H18" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="H18" s="13" t="s">
+      <c r="I18" s="13" t="s">
         <v>109</v>
-      </c>
-      <c r="I18" s="13" t="s">
-        <v>110</v>
       </c>
       <c r="J18" s="14"/>
       <c r="K18" s="14"/>
@@ -2816,28 +2827,28 @@
         <v>3848129</v>
       </c>
       <c r="B19" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="C19" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="D19" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E19" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="D19" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E19" s="10" t="s">
+      <c r="F19" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="F19" s="10" t="s">
+      <c r="G19" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="G19" s="12" t="s">
-        <v>115</v>
-      </c>
       <c r="H19" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="I19" s="23" t="s">
         <v>91</v>
-      </c>
-      <c r="I19" s="23" t="s">
-        <v>92</v>
       </c>
       <c r="J19" s="14"/>
       <c r="K19" s="14"/>
@@ -2859,28 +2870,28 @@
         <v>3830582</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E20" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="F20" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="F20" s="10" t="s">
+      <c r="G20" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="G20" s="12" t="s">
-        <v>115</v>
-      </c>
       <c r="H20" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="I20" s="13" t="s">
         <v>33</v>
-      </c>
-      <c r="I20" s="13" t="s">
-        <v>34</v>
       </c>
       <c r="J20" s="14"/>
       <c r="K20" s="14"/>
@@ -2902,28 +2913,28 @@
         <v>8084433</v>
       </c>
       <c r="B21" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="C21" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="D21" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="D21" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="E21" s="11" t="s">
+      <c r="F21" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="F21" s="11" t="s">
+      <c r="G21" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="G21" s="21" t="s">
-        <v>121</v>
-      </c>
       <c r="H21" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="I21" s="11" t="s">
         <v>33</v>
-      </c>
-      <c r="I21" s="11" t="s">
-        <v>34</v>
       </c>
       <c r="J21" s="14"/>
       <c r="K21" s="14"/>
@@ -2945,28 +2956,28 @@
         <v>8072043</v>
       </c>
       <c r="B22" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="C22" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="D22" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="D22" s="11" t="s">
+      <c r="E22" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="E22" s="10" t="s">
+      <c r="F22" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="F22" s="10" t="s">
+      <c r="G22" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="G22" s="12" t="s">
-        <v>127</v>
-      </c>
       <c r="H22" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="I22" s="11" t="s">
         <v>33</v>
-      </c>
-      <c r="I22" s="11" t="s">
-        <v>34</v>
       </c>
       <c r="J22" s="14"/>
       <c r="K22" s="14"/>
@@ -2984,24 +2995,26 @@
       <c r="W22" s="14"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="15"/>
+      <c r="A23" s="15" t="n">
+        <v>8089491</v>
+      </c>
       <c r="B23" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="C23" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="C23" s="11" t="s">
+      <c r="D23" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E23" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="D23" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="E23" s="10" t="s">
+      <c r="F23" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="F23" s="10" t="s">
+      <c r="G23" s="12" t="s">
         <v>131</v>
-      </c>
-      <c r="G23" s="12" t="s">
-        <v>132</v>
       </c>
       <c r="H23" s="13" t="s">
         <v>15</v>
@@ -3027,28 +3040,28 @@
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="15"/>
       <c r="B24" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="C24" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="C24" s="11" t="s">
+      <c r="D24" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E24" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="D24" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24" s="10" t="s">
+      <c r="F24" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="F24" s="10" t="s">
+      <c r="G24" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="G24" s="12" t="s">
+      <c r="H24" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="H24" s="13" t="s">
+      <c r="I24" s="11" t="s">
         <v>138</v>
-      </c>
-      <c r="I24" s="11" t="s">
-        <v>139</v>
       </c>
       <c r="J24" s="14"/>
       <c r="K24" s="14"/>
@@ -3066,30 +3079,32 @@
       <c r="W24" s="14"/>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="15"/>
+      <c r="A25" s="15" t="n">
+        <v>1431981</v>
+      </c>
       <c r="B25" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="C25" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="D25" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="E25" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="D25" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="E25" s="11" t="s">
+      <c r="F25" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="F25" s="11" t="s">
+      <c r="G25" s="21" t="s">
         <v>143</v>
       </c>
-      <c r="G25" s="21" t="s">
-        <v>144</v>
-      </c>
       <c r="H25" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="I25" s="11" t="s">
         <v>41</v>
-      </c>
-      <c r="I25" s="11" t="s">
-        <v>42</v>
       </c>
       <c r="J25" s="25"/>
       <c r="K25" s="25"/>
@@ -3111,28 +3126,28 @@
         <v>1423255</v>
       </c>
       <c r="B26" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="C26" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="D26" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="E26" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="D26" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="E26" s="10" t="s">
+      <c r="F26" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="F26" s="10" t="s">
+      <c r="G26" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="G26" s="12" t="s">
-        <v>149</v>
-      </c>
       <c r="H26" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="I26" s="10" t="s">
         <v>91</v>
-      </c>
-      <c r="I26" s="10" t="s">
-        <v>92</v>
       </c>
       <c r="J26" s="14"/>
       <c r="K26" s="14"/>
@@ -3154,22 +3169,22 @@
         <v>8065750</v>
       </c>
       <c r="B27" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="C27" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="C27" s="11" t="s">
+      <c r="D27" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="D27" s="11" t="s">
+      <c r="E27" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="E27" s="10" t="s">
+      <c r="F27" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="F27" s="10" t="s">
+      <c r="G27" s="12" t="s">
         <v>154</v>
-      </c>
-      <c r="G27" s="12" t="s">
-        <v>155</v>
       </c>
       <c r="H27" s="13" t="s">
         <v>15</v>
@@ -3197,28 +3212,28 @@
         <v>1415339</v>
       </c>
       <c r="B28" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="C28" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="C28" s="11" t="s">
+      <c r="D28" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="E28" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="D28" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="E28" s="10" t="s">
+      <c r="F28" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="F28" s="10" t="s">
+      <c r="G28" s="21" t="s">
         <v>159</v>
       </c>
-      <c r="G28" s="21" t="s">
-        <v>160</v>
-      </c>
       <c r="H28" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="I28" s="11" t="s">
         <v>49</v>
-      </c>
-      <c r="I28" s="11" t="s">
-        <v>50</v>
       </c>
       <c r="J28" s="14"/>
       <c r="K28" s="14"/>
@@ -3240,28 +3255,28 @@
         <v>1435400</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E29" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="F29" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="F29" s="10" t="s">
+      <c r="G29" s="21" t="s">
         <v>159</v>
       </c>
-      <c r="G29" s="21" t="s">
-        <v>160</v>
-      </c>
       <c r="H29" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="I29" s="11" t="s">
         <v>49</v>
-      </c>
-      <c r="I29" s="11" t="s">
-        <v>50</v>
       </c>
       <c r="J29" s="14"/>
       <c r="K29" s="14"/>
@@ -3283,28 +3298,28 @@
         <v>3839361</v>
       </c>
       <c r="B30" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="C30" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="C30" s="10" t="s">
+      <c r="D30" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="E30" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="D30" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="E30" s="10" t="s">
+      <c r="F30" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="F30" s="10" t="s">
+      <c r="G30" s="12" t="s">
         <v>165</v>
       </c>
-      <c r="G30" s="12" t="s">
-        <v>166</v>
-      </c>
       <c r="H30" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="I30" s="13" t="s">
         <v>68</v>
-      </c>
-      <c r="I30" s="13" t="s">
-        <v>69</v>
       </c>
       <c r="J30" s="14"/>
       <c r="K30" s="14"/>
@@ -3326,22 +3341,22 @@
         <v>8085088</v>
       </c>
       <c r="B31" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="C31" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="C31" s="11" t="s">
+      <c r="D31" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E31" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="D31" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="E31" s="10" t="s">
+      <c r="F31" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="F31" s="10" t="s">
+      <c r="G31" s="12" t="s">
         <v>170</v>
-      </c>
-      <c r="G31" s="12" t="s">
-        <v>171</v>
       </c>
       <c r="H31" s="13" t="s">
         <v>15</v>
@@ -3369,28 +3384,28 @@
         <v>8066907</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C32" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="D32" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="D32" s="11" t="s">
+      <c r="E32" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F32" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="E32" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F32" s="10" t="s">
+      <c r="G32" s="12" t="s">
         <v>174</v>
       </c>
-      <c r="G32" s="12" t="s">
-        <v>175</v>
-      </c>
       <c r="H32" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="I32" s="11" t="s">
         <v>33</v>
-      </c>
-      <c r="I32" s="11" t="s">
-        <v>34</v>
       </c>
       <c r="J32" s="25"/>
       <c r="K32" s="25"/>
@@ -3412,28 +3427,28 @@
         <v>3851298</v>
       </c>
       <c r="B33" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="C33" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="C33" s="10" t="s">
+      <c r="D33" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="E33" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F33" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="D33" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="E33" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="F33" s="10" t="s">
+      <c r="G33" s="12" t="s">
         <v>178</v>
       </c>
-      <c r="G33" s="12" t="s">
+      <c r="H33" s="13" t="s">
         <v>179</v>
       </c>
-      <c r="H33" s="13" t="s">
+      <c r="I33" s="13" t="s">
         <v>180</v>
-      </c>
-      <c r="I33" s="13" t="s">
-        <v>181</v>
       </c>
       <c r="J33" s="14"/>
       <c r="K33" s="14"/>
@@ -3455,28 +3470,28 @@
         <v>1414114</v>
       </c>
       <c r="B34" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="C34" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="C34" s="10" t="s">
+      <c r="D34" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="E34" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="D34" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="E34" s="10" t="s">
+      <c r="F34" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="F34" s="11" t="s">
+      <c r="G34" s="21" t="s">
         <v>185</v>
       </c>
-      <c r="G34" s="21" t="s">
-        <v>186</v>
-      </c>
       <c r="H34" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="I34" s="11" t="s">
         <v>41</v>
-      </c>
-      <c r="I34" s="11" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3484,28 +3499,28 @@
         <v>1425895</v>
       </c>
       <c r="B35" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="C35" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="C35" s="11" t="s">
+      <c r="D35" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="E35" s="11" t="s">
         <v>188</v>
       </c>
-      <c r="D35" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="E35" s="11" t="s">
+      <c r="F35" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="G35" s="21" t="s">
         <v>189</v>
       </c>
-      <c r="F35" s="11" t="s">
-        <v>185</v>
-      </c>
-      <c r="G35" s="21" t="s">
-        <v>190</v>
-      </c>
       <c r="H35" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="I35" s="11" t="s">
         <v>49</v>
-      </c>
-      <c r="I35" s="11" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3513,28 +3528,28 @@
         <v>3849584</v>
       </c>
       <c r="B36" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="C36" s="10" t="s">
         <v>191</v>
       </c>
-      <c r="C36" s="10" t="s">
+      <c r="D36" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="D36" s="11" t="s">
+      <c r="E36" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="E36" s="10" t="s">
+      <c r="F36" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="F36" s="10" t="s">
+      <c r="G36" s="12" t="s">
         <v>195</v>
       </c>
-      <c r="G36" s="12" t="s">
-        <v>196</v>
-      </c>
       <c r="H36" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="I36" s="13" t="s">
         <v>180</v>
-      </c>
-      <c r="I36" s="13" t="s">
-        <v>181</v>
       </c>
       <c r="J36" s="25"/>
       <c r="K36" s="25"/>
@@ -3556,28 +3571,28 @@
         <v>3832105</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D37" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="E37" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="E37" s="10" t="s">
+      <c r="F37" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="F37" s="10" t="s">
+      <c r="G37" s="12" t="s">
         <v>195</v>
       </c>
-      <c r="G37" s="12" t="s">
-        <v>196</v>
-      </c>
       <c r="H37" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="I37" s="23" t="s">
         <v>91</v>
-      </c>
-      <c r="I37" s="23" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3585,28 +3600,28 @@
         <v>3844286</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C38" s="26" t="s">
+        <v>197</v>
+      </c>
+      <c r="D38" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="E38" s="16" t="s">
         <v>198</v>
       </c>
-      <c r="D38" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="E38" s="16" t="s">
+      <c r="F38" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="G38" s="28" t="s">
         <v>199</v>
       </c>
-      <c r="F38" s="16" t="s">
-        <v>195</v>
-      </c>
-      <c r="G38" s="28" t="s">
+      <c r="H38" s="18" t="s">
         <v>200</v>
       </c>
-      <c r="H38" s="18" t="s">
+      <c r="I38" s="18" t="s">
         <v>201</v>
-      </c>
-      <c r="I38" s="18" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3614,28 +3629,28 @@
         <v>3837546</v>
       </c>
       <c r="B39" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="C39" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="C39" s="10" t="s">
+      <c r="D39" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E39" s="10" t="s">
         <v>204</v>
       </c>
-      <c r="D39" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="E39" s="10" t="s">
+      <c r="F39" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="F39" s="10" t="s">
+      <c r="G39" s="12" t="s">
         <v>206</v>
       </c>
-      <c r="G39" s="12" t="s">
+      <c r="H39" s="13" t="s">
         <v>207</v>
       </c>
-      <c r="H39" s="13" t="s">
+      <c r="I39" s="18" t="s">
         <v>208</v>
-      </c>
-      <c r="I39" s="18" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3643,26 +3658,26 @@
         <v>1425999</v>
       </c>
       <c r="B40" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="C40" s="11" t="s">
         <v>210</v>
-      </c>
-      <c r="C40" s="11" t="s">
-        <v>211</v>
       </c>
       <c r="D40" s="15"/>
       <c r="E40" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="F40" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="F40" s="11" t="s">
+      <c r="G40" s="21" t="s">
         <v>213</v>
       </c>
-      <c r="G40" s="21" t="s">
-        <v>214</v>
-      </c>
       <c r="H40" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="I40" s="11" t="s">
         <v>49</v>
-      </c>
-      <c r="I40" s="11" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3670,28 +3685,28 @@
         <v>3842971</v>
       </c>
       <c r="B41" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="C41" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="C41" s="10" t="s">
+      <c r="D41" s="11" t="s">
         <v>216</v>
       </c>
-      <c r="D41" s="11" t="s">
+      <c r="E41" s="10" t="s">
         <v>217</v>
       </c>
-      <c r="E41" s="10" t="s">
+      <c r="F41" s="10" t="s">
         <v>218</v>
       </c>
-      <c r="F41" s="10" t="s">
+      <c r="G41" s="12" t="s">
         <v>219</v>
       </c>
-      <c r="G41" s="12" t="s">
-        <v>220</v>
-      </c>
       <c r="H41" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="I41" s="18" t="s">
         <v>201</v>
-      </c>
-      <c r="I41" s="18" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3699,28 +3714,28 @@
         <v>7903294</v>
       </c>
       <c r="B42" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="C42" s="9" t="s">
         <v>221</v>
       </c>
-      <c r="C42" s="9" t="s">
+      <c r="D42" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="E42" s="19" t="s">
         <v>222</v>
       </c>
-      <c r="D42" s="11" t="s">
-        <v>193</v>
-      </c>
-      <c r="E42" s="19" t="s">
+      <c r="F42" s="19" t="s">
         <v>223</v>
       </c>
-      <c r="F42" s="19" t="s">
+      <c r="G42" s="20" t="s">
         <v>224</v>
       </c>
-      <c r="G42" s="20" t="s">
+      <c r="H42" s="13" t="s">
         <v>225</v>
       </c>
-      <c r="H42" s="13" t="s">
-        <v>226</v>
-      </c>
       <c r="I42" s="19" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3728,28 +3743,28 @@
         <v>1425276</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D43" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E43" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="F43" s="19" t="s">
         <v>223</v>
       </c>
-      <c r="F43" s="19" t="s">
+      <c r="G43" s="20" t="s">
         <v>224</v>
       </c>
-      <c r="G43" s="20" t="s">
-        <v>225</v>
-      </c>
       <c r="H43" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="I43" s="19" t="s">
         <v>180</v>
-      </c>
-      <c r="I43" s="19" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3757,28 +3772,28 @@
         <v>8067303</v>
       </c>
       <c r="B44" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="C44" s="10" t="s">
         <v>228</v>
       </c>
-      <c r="C44" s="10" t="s">
+      <c r="D44" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="E44" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="D44" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="E44" s="10" t="s">
+      <c r="F44" s="10" t="s">
         <v>230</v>
       </c>
-      <c r="F44" s="10" t="s">
+      <c r="G44" s="12" t="s">
         <v>231</v>
       </c>
-      <c r="G44" s="12" t="s">
-        <v>232</v>
-      </c>
       <c r="H44" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="I44" s="10" t="s">
         <v>91</v>
-      </c>
-      <c r="I44" s="10" t="s">
-        <v>92</v>
       </c>
       <c r="J44" s="29"/>
       <c r="K44" s="29"/>
@@ -3800,26 +3815,26 @@
         <v>3836372</v>
       </c>
       <c r="B45" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="C45" s="10" t="s">
         <v>233</v>
-      </c>
-      <c r="C45" s="10" t="s">
-        <v>234</v>
       </c>
       <c r="D45" s="11"/>
       <c r="E45" s="16" t="s">
+        <v>234</v>
+      </c>
+      <c r="F45" s="16" t="s">
         <v>235</v>
       </c>
-      <c r="F45" s="16" t="s">
+      <c r="G45" s="12" t="s">
         <v>236</v>
       </c>
-      <c r="G45" s="12" t="s">
-        <v>237</v>
-      </c>
       <c r="H45" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="I45" s="18" t="s">
         <v>201</v>
-      </c>
-      <c r="I45" s="18" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3827,28 +3842,28 @@
         <v>3835445</v>
       </c>
       <c r="B46" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="C46" s="10" t="s">
         <v>238</v>
       </c>
-      <c r="C46" s="10" t="s">
+      <c r="D46" s="11" t="s">
         <v>239</v>
       </c>
-      <c r="D46" s="11" t="s">
+      <c r="E46" s="10" t="s">
         <v>240</v>
       </c>
-      <c r="E46" s="10" t="s">
+      <c r="F46" s="10" t="s">
         <v>241</v>
       </c>
-      <c r="F46" s="10" t="s">
+      <c r="G46" s="12" t="s">
         <v>242</v>
       </c>
-      <c r="G46" s="12" t="s">
-        <v>243</v>
-      </c>
       <c r="H46" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="I46" s="13" t="s">
         <v>49</v>
-      </c>
-      <c r="I46" s="13" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3856,55 +3871,55 @@
         <v>3853408</v>
       </c>
       <c r="B47" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="C47" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="C47" s="10" t="s">
+      <c r="D47" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E47" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="D47" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="E47" s="10" t="s">
+      <c r="F47" s="10" t="s">
         <v>246</v>
       </c>
-      <c r="F47" s="10" t="s">
+      <c r="G47" s="12" t="s">
         <v>247</v>
       </c>
-      <c r="G47" s="12" t="s">
-        <v>248</v>
-      </c>
       <c r="H47" s="13" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I47" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="15"/>
       <c r="B48" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="C48" s="10" t="s">
         <v>249</v>
       </c>
-      <c r="C48" s="10" t="s">
+      <c r="D48" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="E48" s="10" t="s">
         <v>250</v>
       </c>
-      <c r="D48" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="E48" s="10" t="s">
+      <c r="F48" s="10" t="s">
         <v>251</v>
       </c>
-      <c r="F48" s="10" t="s">
+      <c r="G48" s="12" t="s">
         <v>252</v>
       </c>
-      <c r="G48" s="12" t="s">
-        <v>253</v>
-      </c>
       <c r="H48" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="I48" s="18" t="s">
         <v>208</v>
-      </c>
-      <c r="I48" s="18" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3912,28 +3927,28 @@
         <v>3829074</v>
       </c>
       <c r="B49" s="22" t="s">
+        <v>253</v>
+      </c>
+      <c r="C49" s="11" t="s">
         <v>254</v>
       </c>
-      <c r="C49" s="11" t="s">
+      <c r="D49" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E49" s="10" t="s">
         <v>255</v>
       </c>
-      <c r="D49" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="E49" s="10" t="s">
+      <c r="F49" s="10" t="s">
         <v>256</v>
       </c>
-      <c r="F49" s="10" t="s">
+      <c r="G49" s="12" t="s">
         <v>257</v>
       </c>
-      <c r="G49" s="12" t="s">
-        <v>258</v>
-      </c>
       <c r="H49" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="I49" s="13" t="s">
         <v>109</v>
-      </c>
-      <c r="I49" s="13" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3941,28 +3956,28 @@
         <v>3852865</v>
       </c>
       <c r="B50" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="C50" s="10" t="s">
         <v>259</v>
       </c>
-      <c r="C50" s="10" t="s">
+      <c r="D50" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E50" s="10" t="s">
         <v>260</v>
       </c>
-      <c r="D50" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="E50" s="10" t="s">
+      <c r="F50" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="F50" s="10" t="s">
+      <c r="G50" s="12" t="s">
         <v>262</v>
       </c>
-      <c r="G50" s="12" t="s">
-        <v>263</v>
-      </c>
       <c r="H50" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="I50" s="13" t="s">
         <v>49</v>
-      </c>
-      <c r="I50" s="13" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3970,28 +3985,28 @@
         <v>3851274</v>
       </c>
       <c r="B51" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="C51" s="10" t="s">
         <v>264</v>
       </c>
-      <c r="C51" s="10" t="s">
+      <c r="D51" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E51" s="10" t="s">
         <v>265</v>
       </c>
-      <c r="D51" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="E51" s="10" t="s">
+      <c r="F51" s="10" t="s">
         <v>266</v>
       </c>
-      <c r="F51" s="10" t="s">
+      <c r="G51" s="12" t="s">
         <v>267</v>
       </c>
-      <c r="G51" s="12" t="s">
+      <c r="H51" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="I51" s="13" t="s">
         <v>268</v>
-      </c>
-      <c r="H51" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="I51" s="13" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3999,28 +4014,28 @@
         <v>3835568</v>
       </c>
       <c r="B52" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="C52" s="10" t="s">
         <v>270</v>
       </c>
-      <c r="C52" s="10" t="s">
+      <c r="D52" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="E52" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="D52" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="E52" s="10" t="s">
+      <c r="F52" s="10" t="s">
         <v>272</v>
       </c>
-      <c r="F52" s="10" t="s">
+      <c r="G52" s="12" t="s">
         <v>273</v>
       </c>
-      <c r="G52" s="12" t="s">
-        <v>274</v>
-      </c>
       <c r="H52" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="I52" s="23" t="s">
         <v>91</v>
-      </c>
-      <c r="I52" s="23" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4028,28 +4043,28 @@
         <v>3853289</v>
       </c>
       <c r="B53" s="22" t="s">
+        <v>274</v>
+      </c>
+      <c r="C53" s="11" t="s">
         <v>275</v>
       </c>
-      <c r="C53" s="11" t="s">
+      <c r="D53" s="11" t="s">
         <v>276</v>
       </c>
-      <c r="D53" s="11" t="s">
+      <c r="E53" s="16" t="s">
         <v>277</v>
       </c>
-      <c r="E53" s="16" t="s">
+      <c r="F53" s="16" t="s">
         <v>278</v>
       </c>
-      <c r="F53" s="16" t="s">
+      <c r="G53" s="21" t="s">
         <v>279</v>
       </c>
-      <c r="G53" s="21" t="s">
-        <v>280</v>
-      </c>
       <c r="H53" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="I53" s="13" t="s">
         <v>180</v>
-      </c>
-      <c r="I53" s="13" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4057,28 +4072,28 @@
         <v>3837828</v>
       </c>
       <c r="B54" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="C54" s="10" t="s">
         <v>281</v>
       </c>
-      <c r="C54" s="10" t="s">
+      <c r="D54" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="E54" s="10" t="s">
         <v>282</v>
       </c>
-      <c r="D54" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="E54" s="10" t="s">
+      <c r="F54" s="10" t="s">
         <v>283</v>
       </c>
-      <c r="F54" s="10" t="s">
+      <c r="G54" s="12" t="s">
         <v>284</v>
       </c>
-      <c r="G54" s="12" t="s">
-        <v>285</v>
-      </c>
       <c r="H54" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="I54" s="30" t="s">
         <v>208</v>
-      </c>
-      <c r="I54" s="30" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4086,25 +4101,25 @@
         <v>3847315</v>
       </c>
       <c r="B55" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="C55" s="10" t="s">
         <v>286</v>
       </c>
-      <c r="C55" s="10" t="s">
+      <c r="D55" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E55" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="D55" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="E55" s="10" t="s">
+      <c r="F55" s="10" t="s">
         <v>288</v>
       </c>
-      <c r="F55" s="10" t="s">
+      <c r="G55" s="12" t="s">
         <v>289</v>
       </c>
-      <c r="G55" s="12" t="s">
+      <c r="H55" s="13" t="s">
         <v>290</v>
-      </c>
-      <c r="H55" s="13" t="s">
-        <v>291</v>
       </c>
       <c r="I55" s="13"/>
     </row>
@@ -4113,28 +4128,28 @@
         <v>3843226</v>
       </c>
       <c r="B56" s="22" t="s">
+        <v>291</v>
+      </c>
+      <c r="C56" s="11" t="s">
         <v>292</v>
       </c>
-      <c r="C56" s="11" t="s">
+      <c r="D56" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="E56" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="F56" s="16" t="s">
         <v>293</v>
       </c>
-      <c r="D56" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="E56" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="F56" s="16" t="s">
+      <c r="G56" s="12" t="s">
         <v>294</v>
       </c>
-      <c r="G56" s="12" t="s">
-        <v>295</v>
-      </c>
       <c r="H56" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="I56" s="13" t="s">
         <v>138</v>
-      </c>
-      <c r="I56" s="13" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4142,28 +4157,28 @@
         <v>3840102</v>
       </c>
       <c r="B57" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="C57" s="10" t="s">
         <v>296</v>
       </c>
-      <c r="C57" s="10" t="s">
+      <c r="D57" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E57" s="16" t="s">
         <v>297</v>
       </c>
-      <c r="D57" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="E57" s="16" t="s">
+      <c r="F57" s="16" t="s">
         <v>298</v>
       </c>
-      <c r="F57" s="16" t="s">
+      <c r="G57" s="12" t="s">
         <v>299</v>
       </c>
-      <c r="G57" s="12" t="s">
-        <v>300</v>
-      </c>
       <c r="H57" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="I57" s="18" t="s">
         <v>201</v>
-      </c>
-      <c r="I57" s="18" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4171,49 +4186,49 @@
         <v>3848926</v>
       </c>
       <c r="B58" s="9" t="s">
+        <v>300</v>
+      </c>
+      <c r="C58" s="10" t="s">
         <v>301</v>
       </c>
-      <c r="C58" s="10" t="s">
+      <c r="D58" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E58" s="10" t="s">
         <v>302</v>
       </c>
-      <c r="D58" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="E58" s="10" t="s">
+      <c r="F58" s="10" t="s">
         <v>303</v>
       </c>
-      <c r="F58" s="10" t="s">
+      <c r="G58" s="12" t="s">
         <v>304</v>
       </c>
-      <c r="G58" s="12" t="s">
-        <v>305</v>
-      </c>
       <c r="H58" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="I58" s="13" t="s">
         <v>49</v>
-      </c>
-      <c r="I58" s="13" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="15"/>
       <c r="B59" s="11" t="s">
+        <v>305</v>
+      </c>
+      <c r="C59" s="11" t="s">
         <v>306</v>
       </c>
-      <c r="C59" s="11" t="s">
+      <c r="D59" s="11" t="s">
         <v>307</v>
       </c>
-      <c r="D59" s="11" t="s">
+      <c r="E59" s="10" t="s">
         <v>308</v>
       </c>
-      <c r="E59" s="10" t="s">
+      <c r="F59" s="10" t="s">
         <v>309</v>
       </c>
-      <c r="F59" s="10" t="s">
+      <c r="G59" s="12" t="s">
         <v>310</v>
-      </c>
-      <c r="G59" s="12" t="s">
-        <v>311</v>
       </c>
       <c r="H59" s="13" t="s">
         <v>15</v>
@@ -4227,22 +4242,22 @@
         <v>8064239</v>
       </c>
       <c r="B60" s="11" t="s">
+        <v>311</v>
+      </c>
+      <c r="C60" s="11" t="s">
         <v>312</v>
       </c>
-      <c r="C60" s="11" t="s">
+      <c r="D60" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="E60" s="10" t="s">
         <v>313</v>
       </c>
-      <c r="D60" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="E60" s="10" t="s">
+      <c r="F60" s="10" t="s">
         <v>314</v>
       </c>
-      <c r="F60" s="10" t="s">
+      <c r="G60" s="12" t="s">
         <v>315</v>
-      </c>
-      <c r="G60" s="12" t="s">
-        <v>316</v>
       </c>
       <c r="H60" s="13" t="s">
         <v>15</v>
@@ -4254,82 +4269,84 @@
     <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="15"/>
       <c r="B61" s="9" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C61" s="10" t="s">
+        <v>316</v>
+      </c>
+      <c r="D61" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="E61" s="10" t="s">
         <v>317</v>
       </c>
-      <c r="D61" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="E61" s="10" t="s">
-        <v>318</v>
-      </c>
       <c r="F61" s="10" t="s">
+        <v>314</v>
+      </c>
+      <c r="G61" s="12" t="s">
         <v>315</v>
       </c>
-      <c r="G61" s="12" t="s">
-        <v>316</v>
-      </c>
       <c r="H61" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="I61" s="11" t="s">
         <v>68</v>
-      </c>
-      <c r="I61" s="11" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="15"/>
       <c r="B62" s="9" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C62" s="10" t="s">
+        <v>318</v>
+      </c>
+      <c r="D62" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="E62" s="10" t="s">
+        <v>317</v>
+      </c>
+      <c r="F62" s="10" t="s">
+        <v>314</v>
+      </c>
+      <c r="G62" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="H62" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="I62" s="13" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="15" t="n">
+        <v>1418319</v>
+      </c>
+      <c r="B63" s="11" t="s">
         <v>319</v>
       </c>
-      <c r="D62" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="E62" s="10" t="s">
-        <v>318</v>
-      </c>
-      <c r="F62" s="10" t="s">
-        <v>315</v>
-      </c>
-      <c r="G62" s="12" t="s">
-        <v>316</v>
-      </c>
-      <c r="H62" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="I62" s="13" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="15"/>
-      <c r="B63" s="11" t="s">
+      <c r="C63" s="11" t="s">
         <v>320</v>
       </c>
-      <c r="C63" s="11" t="s">
+      <c r="D63" s="11" t="s">
+        <v>307</v>
+      </c>
+      <c r="E63" s="10" t="s">
         <v>321</v>
       </c>
-      <c r="D63" s="11" t="s">
-        <v>308</v>
-      </c>
-      <c r="E63" s="10" t="s">
+      <c r="F63" s="10" t="s">
         <v>322</v>
       </c>
-      <c r="F63" s="10" t="s">
+      <c r="G63" s="12" t="s">
         <v>323</v>
       </c>
-      <c r="G63" s="12" t="s">
-        <v>324</v>
-      </c>
       <c r="H63" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="I63" s="11" t="s">
         <v>109</v>
-      </c>
-      <c r="I63" s="11" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4337,47 +4354,47 @@
         <v>1431103</v>
       </c>
       <c r="B64" s="11" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C64" s="11" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D64" s="11" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E64" s="10" t="s">
+        <v>321</v>
+      </c>
+      <c r="F64" s="10" t="s">
         <v>322</v>
       </c>
-      <c r="F64" s="10" t="s">
+      <c r="G64" s="12" t="s">
         <v>323</v>
       </c>
-      <c r="G64" s="12" t="s">
-        <v>324</v>
-      </c>
       <c r="H64" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I64" s="11"/>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="15"/>
       <c r="B65" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="C65" s="11" t="s">
         <v>326</v>
       </c>
-      <c r="C65" s="11" t="s">
+      <c r="D65" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="E65" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F65" s="10" t="s">
         <v>327</v>
       </c>
-      <c r="D65" s="11" t="s">
-        <v>240</v>
-      </c>
-      <c r="E65" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F65" s="10" t="s">
+      <c r="G65" s="12" t="s">
         <v>328</v>
-      </c>
-      <c r="G65" s="12" t="s">
-        <v>329</v>
       </c>
       <c r="H65" s="13" t="s">
         <v>15</v>
@@ -4389,22 +4406,22 @@
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="15"/>
       <c r="B66" s="11" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C66" s="11" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D66" s="11" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E66" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F66" s="10" t="s">
+        <v>327</v>
+      </c>
+      <c r="G66" s="12" t="s">
         <v>328</v>
-      </c>
-      <c r="G66" s="12" t="s">
-        <v>329</v>
       </c>
       <c r="H66" s="13" t="s">
         <v>15</v>
@@ -4430,28 +4447,28 @@
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="15"/>
       <c r="B67" s="11" t="s">
+        <v>330</v>
+      </c>
+      <c r="C67" s="11" t="s">
         <v>331</v>
       </c>
-      <c r="C67" s="11" t="s">
+      <c r="D67" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="E67" s="10" t="s">
         <v>332</v>
       </c>
-      <c r="D67" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="E67" s="10" t="s">
+      <c r="F67" s="10" t="s">
         <v>333</v>
       </c>
-      <c r="F67" s="10" t="s">
+      <c r="G67" s="12" t="s">
         <v>334</v>
       </c>
-      <c r="G67" s="12" t="s">
-        <v>335</v>
-      </c>
       <c r="H67" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="I67" s="11" t="s">
         <v>33</v>
-      </c>
-      <c r="I67" s="11" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4459,22 +4476,22 @@
         <v>3840798</v>
       </c>
       <c r="B68" s="9" t="s">
+        <v>335</v>
+      </c>
+      <c r="C68" s="10" t="s">
         <v>336</v>
       </c>
-      <c r="C68" s="10" t="s">
+      <c r="D68" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="E68" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F68" s="11" t="s">
         <v>337</v>
       </c>
-      <c r="D68" s="9" t="s">
-        <v>217</v>
-      </c>
-      <c r="E68" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="F68" s="11" t="s">
+      <c r="G68" s="21" t="s">
         <v>338</v>
-      </c>
-      <c r="G68" s="21" t="s">
-        <v>339</v>
       </c>
       <c r="H68" s="13" t="s">
         <v>15</v>
@@ -4488,22 +4505,22 @@
         <v>8059363</v>
       </c>
       <c r="B69" s="11" t="s">
+        <v>339</v>
+      </c>
+      <c r="C69" s="11" t="s">
         <v>340</v>
       </c>
-      <c r="C69" s="11" t="s">
+      <c r="D69" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="E69" s="10" t="s">
         <v>341</v>
       </c>
-      <c r="D69" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="E69" s="10" t="s">
+      <c r="F69" s="10" t="s">
         <v>342</v>
       </c>
-      <c r="F69" s="10" t="s">
+      <c r="G69" s="12" t="s">
         <v>343</v>
-      </c>
-      <c r="G69" s="12" t="s">
-        <v>344</v>
       </c>
       <c r="H69" s="13" t="s">
         <v>15</v>
@@ -4517,22 +4534,22 @@
         <v>3176989</v>
       </c>
       <c r="B70" s="11" t="s">
+        <v>344</v>
+      </c>
+      <c r="C70" s="11" t="s">
         <v>345</v>
       </c>
-      <c r="C70" s="11" t="s">
+      <c r="D70" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="E70" s="10" t="s">
         <v>346</v>
       </c>
-      <c r="D70" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="E70" s="10" t="s">
+      <c r="F70" s="10" t="s">
         <v>347</v>
       </c>
-      <c r="F70" s="10" t="s">
+      <c r="G70" s="12" t="s">
         <v>348</v>
-      </c>
-      <c r="G70" s="12" t="s">
-        <v>349</v>
       </c>
       <c r="H70" s="13" t="s">
         <v>15</v>
@@ -4546,20 +4563,20 @@
         <v>3842988</v>
       </c>
       <c r="B71" s="9" t="s">
+        <v>349</v>
+      </c>
+      <c r="C71" s="10" t="s">
         <v>350</v>
-      </c>
-      <c r="C71" s="10" t="s">
-        <v>351</v>
       </c>
       <c r="D71" s="11"/>
       <c r="E71" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="F71" s="10" t="s">
         <v>352</v>
       </c>
-      <c r="F71" s="10" t="s">
+      <c r="G71" s="12" t="s">
         <v>353</v>
-      </c>
-      <c r="G71" s="12" t="s">
-        <v>354</v>
       </c>
       <c r="H71" s="13" t="s">
         <v>15</v>
@@ -4573,28 +4590,28 @@
         <v>8066245</v>
       </c>
       <c r="B72" s="9" t="s">
+        <v>354</v>
+      </c>
+      <c r="C72" s="10" t="s">
         <v>355</v>
       </c>
-      <c r="C72" s="10" t="s">
+      <c r="D72" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E72" s="19" t="s">
         <v>356</v>
       </c>
-      <c r="D72" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="E72" s="19" t="s">
+      <c r="F72" s="19" t="s">
         <v>357</v>
       </c>
-      <c r="F72" s="19" t="s">
+      <c r="G72" s="20" t="s">
         <v>358</v>
       </c>
-      <c r="G72" s="20" t="s">
-        <v>359</v>
-      </c>
       <c r="H72" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="I72" s="19" t="s">
         <v>180</v>
-      </c>
-      <c r="I72" s="19" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4602,25 +4619,25 @@
         <v>3172069</v>
       </c>
       <c r="B73" s="11" t="s">
+        <v>359</v>
+      </c>
+      <c r="C73" s="11" t="s">
         <v>360</v>
       </c>
-      <c r="C73" s="11" t="s">
+      <c r="D73" s="11" t="s">
         <v>361</v>
       </c>
-      <c r="D73" s="11" t="s">
+      <c r="E73" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="F73" s="11" t="s">
         <v>362</v>
       </c>
-      <c r="E73" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="F73" s="11" t="s">
+      <c r="G73" s="21" t="s">
         <v>363</v>
       </c>
-      <c r="G73" s="21" t="s">
-        <v>364</v>
-      </c>
       <c r="H73" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I73" s="15"/>
     </row>
@@ -4629,26 +4646,26 @@
         <v>3842808</v>
       </c>
       <c r="B74" s="22" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C74" s="11" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="16" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F74" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="G74" s="21" t="s">
         <v>206</v>
       </c>
-      <c r="G74" s="21" t="s">
-        <v>207</v>
-      </c>
       <c r="H74" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="I74" s="13" t="s">
         <v>180</v>
-      </c>
-      <c r="I74" s="13" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4656,26 +4673,26 @@
         <v>3837675</v>
       </c>
       <c r="B75" s="22" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C75" s="10" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D75" s="11"/>
       <c r="E75" s="10" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F75" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="G75" s="12" t="s">
         <v>206</v>
       </c>
-      <c r="G75" s="12" t="s">
-        <v>207</v>
-      </c>
       <c r="H75" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="I75" s="13" t="s">
         <v>41</v>
-      </c>
-      <c r="I75" s="13" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4683,28 +4700,28 @@
         <v>3848338</v>
       </c>
       <c r="B76" s="9" t="s">
+        <v>368</v>
+      </c>
+      <c r="C76" s="10" t="s">
         <v>369</v>
       </c>
-      <c r="C76" s="10" t="s">
+      <c r="D76" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="E76" s="10" t="s">
         <v>370</v>
       </c>
-      <c r="D76" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="E76" s="10" t="s">
+      <c r="F76" s="10" t="s">
         <v>371</v>
       </c>
-      <c r="F76" s="10" t="s">
+      <c r="G76" s="12" t="s">
         <v>372</v>
       </c>
-      <c r="G76" s="12" t="s">
-        <v>373</v>
-      </c>
       <c r="H76" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="I76" s="13" t="s">
         <v>68</v>
-      </c>
-      <c r="I76" s="13" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4712,28 +4729,28 @@
         <v>3850281</v>
       </c>
       <c r="B77" s="9" t="s">
+        <v>373</v>
+      </c>
+      <c r="C77" s="26" t="s">
         <v>374</v>
       </c>
-      <c r="C77" s="26" t="s">
+      <c r="D77" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E77" s="16" t="s">
         <v>375</v>
       </c>
-      <c r="D77" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="E77" s="16" t="s">
+      <c r="F77" s="16" t="s">
         <v>376</v>
       </c>
-      <c r="F77" s="16" t="s">
+      <c r="G77" s="28" t="s">
         <v>377</v>
       </c>
-      <c r="G77" s="28" t="s">
-        <v>378</v>
-      </c>
       <c r="H77" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="I77" s="18" t="s">
         <v>201</v>
-      </c>
-      <c r="I77" s="18" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4741,53 +4758,55 @@
         <v>3830794</v>
       </c>
       <c r="B78" s="9" t="s">
+        <v>378</v>
+      </c>
+      <c r="C78" s="10" t="s">
         <v>379</v>
       </c>
-      <c r="C78" s="10" t="s">
+      <c r="D78" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="E78" s="10" t="s">
         <v>380</v>
       </c>
-      <c r="D78" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="E78" s="10" t="s">
+      <c r="F78" s="10" t="s">
         <v>381</v>
-      </c>
-      <c r="F78" s="10" t="s">
-        <v>382</v>
       </c>
       <c r="G78" s="12"/>
       <c r="H78" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="I78" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="I78" s="13" t="s">
-        <v>50</v>
-      </c>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="15"/>
+      <c r="A79" s="15" t="n">
+        <v>8065062</v>
+      </c>
       <c r="B79" s="11" t="s">
+        <v>382</v>
+      </c>
+      <c r="C79" s="11" t="s">
         <v>383</v>
       </c>
-      <c r="C79" s="11" t="s">
+      <c r="D79" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="E79" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="F79" s="11" t="s">
         <v>384</v>
       </c>
-      <c r="D79" s="11" t="s">
-        <v>217</v>
-      </c>
-      <c r="E79" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="F79" s="11" t="s">
+      <c r="G79" s="21" t="s">
         <v>385</v>
       </c>
-      <c r="G79" s="21" t="s">
-        <v>386</v>
-      </c>
       <c r="H79" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="I79" s="11" t="s">
         <v>49</v>
-      </c>
-      <c r="I79" s="11" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4795,28 +4814,28 @@
         <v>3844583</v>
       </c>
       <c r="B80" s="9" t="s">
+        <v>386</v>
+      </c>
+      <c r="C80" s="10" t="s">
         <v>387</v>
       </c>
-      <c r="C80" s="10" t="s">
+      <c r="D80" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="E80" s="10" t="s">
         <v>388</v>
       </c>
-      <c r="D80" s="11" t="s">
-        <v>217</v>
-      </c>
-      <c r="E80" s="10" t="s">
+      <c r="F80" s="10" t="s">
         <v>389</v>
       </c>
-      <c r="F80" s="10" t="s">
+      <c r="G80" s="12" t="s">
         <v>390</v>
       </c>
-      <c r="G80" s="12" t="s">
-        <v>391</v>
-      </c>
       <c r="H80" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="I80" s="13" t="s">
         <v>109</v>
-      </c>
-      <c r="I80" s="13" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4824,26 +4843,26 @@
         <v>3832171</v>
       </c>
       <c r="B81" s="9" t="s">
+        <v>391</v>
+      </c>
+      <c r="C81" s="10" t="s">
         <v>392</v>
-      </c>
-      <c r="C81" s="10" t="s">
-        <v>393</v>
       </c>
       <c r="D81" s="11"/>
       <c r="E81" s="10" t="s">
+        <v>393</v>
+      </c>
+      <c r="F81" s="10" t="s">
         <v>394</v>
       </c>
-      <c r="F81" s="10" t="s">
+      <c r="G81" s="12" t="s">
         <v>395</v>
       </c>
-      <c r="G81" s="12" t="s">
-        <v>396</v>
-      </c>
       <c r="H81" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="I81" s="13" t="s">
         <v>49</v>
-      </c>
-      <c r="I81" s="13" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4851,23 +4870,23 @@
         <v>3840320</v>
       </c>
       <c r="B82" s="22" t="s">
+        <v>396</v>
+      </c>
+      <c r="C82" s="11" t="s">
         <v>397</v>
-      </c>
-      <c r="C82" s="11" t="s">
-        <v>398</v>
       </c>
       <c r="D82" s="11"/>
       <c r="E82" s="16" t="s">
+        <v>398</v>
+      </c>
+      <c r="F82" s="16" t="s">
         <v>399</v>
       </c>
-      <c r="F82" s="16" t="s">
+      <c r="G82" s="12" t="s">
         <v>400</v>
       </c>
-      <c r="G82" s="12" t="s">
-        <v>401</v>
-      </c>
       <c r="H82" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I82" s="13"/>
     </row>
@@ -4876,28 +4895,28 @@
         <v>3841276</v>
       </c>
       <c r="B83" s="22" t="s">
+        <v>401</v>
+      </c>
+      <c r="C83" s="11" t="s">
         <v>402</v>
       </c>
-      <c r="C83" s="11" t="s">
+      <c r="D83" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="E83" s="11" t="s">
         <v>403</v>
       </c>
-      <c r="D83" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="E83" s="11" t="s">
+      <c r="F83" s="11" t="s">
         <v>404</v>
       </c>
-      <c r="F83" s="11" t="s">
+      <c r="G83" s="21" t="s">
         <v>405</v>
       </c>
-      <c r="G83" s="21" t="s">
-        <v>406</v>
-      </c>
       <c r="H83" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="I83" s="13" t="s">
         <v>180</v>
-      </c>
-      <c r="I83" s="13" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4905,28 +4924,28 @@
         <v>8087795</v>
       </c>
       <c r="B84" s="11" t="s">
+        <v>406</v>
+      </c>
+      <c r="C84" s="11" t="s">
         <v>407</v>
       </c>
-      <c r="C84" s="11" t="s">
+      <c r="D84" s="11" t="s">
+        <v>361</v>
+      </c>
+      <c r="E84" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F84" s="10" t="s">
         <v>408</v>
       </c>
-      <c r="D84" s="11" t="s">
-        <v>362</v>
-      </c>
-      <c r="E84" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F84" s="10" t="s">
+      <c r="G84" s="12" t="s">
         <v>409</v>
       </c>
-      <c r="G84" s="12" t="s">
-        <v>410</v>
-      </c>
       <c r="H84" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="I84" s="11" t="s">
         <v>33</v>
-      </c>
-      <c r="I84" s="11" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4934,28 +4953,28 @@
         <v>1419550</v>
       </c>
       <c r="B85" s="9" t="s">
+        <v>410</v>
+      </c>
+      <c r="C85" s="10" t="s">
         <v>411</v>
       </c>
-      <c r="C85" s="10" t="s">
+      <c r="D85" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E85" s="10" t="s">
         <v>412</v>
       </c>
-      <c r="D85" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="E85" s="10" t="s">
+      <c r="F85" s="10" t="s">
         <v>413</v>
       </c>
-      <c r="F85" s="10" t="s">
+      <c r="G85" s="12" t="s">
         <v>414</v>
       </c>
-      <c r="G85" s="12" t="s">
-        <v>415</v>
-      </c>
       <c r="H85" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="I85" s="11" t="s">
         <v>41</v>
-      </c>
-      <c r="I85" s="11" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4963,28 +4982,28 @@
         <v>8088783</v>
       </c>
       <c r="B86" s="11" t="s">
+        <v>415</v>
+      </c>
+      <c r="C86" s="11" t="s">
         <v>416</v>
       </c>
-      <c r="C86" s="11" t="s">
+      <c r="D86" s="11" t="s">
         <v>417</v>
       </c>
-      <c r="D86" s="11" t="s">
-        <v>418</v>
-      </c>
       <c r="E86" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="F86" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="F86" s="10" t="s">
+      <c r="G86" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="G86" s="12" t="s">
-        <v>127</v>
-      </c>
       <c r="H86" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="I86" s="11" t="s">
         <v>33</v>
-      </c>
-      <c r="I86" s="11" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4992,28 +5011,28 @@
         <v>3835099</v>
       </c>
       <c r="B87" s="9" t="s">
+        <v>418</v>
+      </c>
+      <c r="C87" s="10" t="s">
         <v>419</v>
       </c>
-      <c r="C87" s="10" t="s">
+      <c r="D87" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E87" s="10" t="s">
         <v>420</v>
       </c>
-      <c r="D87" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="E87" s="10" t="s">
+      <c r="F87" s="10" t="s">
         <v>421</v>
       </c>
-      <c r="F87" s="10" t="s">
+      <c r="G87" s="12" t="s">
         <v>422</v>
       </c>
-      <c r="G87" s="12" t="s">
-        <v>423</v>
-      </c>
       <c r="H87" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="I87" s="23" t="s">
         <v>91</v>
-      </c>
-      <c r="I87" s="23" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5021,22 +5040,22 @@
         <v>3154432</v>
       </c>
       <c r="B88" s="11" t="s">
+        <v>423</v>
+      </c>
+      <c r="C88" s="11" t="s">
         <v>424</v>
       </c>
-      <c r="C88" s="11" t="s">
+      <c r="D88" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="E88" s="10" t="s">
         <v>425</v>
       </c>
-      <c r="D88" s="11" t="s">
-        <v>193</v>
-      </c>
-      <c r="E88" s="10" t="s">
+      <c r="F88" s="10" t="s">
         <v>426</v>
       </c>
-      <c r="F88" s="10" t="s">
+      <c r="G88" s="12" t="s">
         <v>427</v>
-      </c>
-      <c r="G88" s="12" t="s">
-        <v>428</v>
       </c>
       <c r="H88" s="13" t="s">
         <v>15</v>
@@ -5048,28 +5067,28 @@
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="15"/>
       <c r="B89" s="11" t="s">
+        <v>428</v>
+      </c>
+      <c r="C89" s="11" t="s">
         <v>429</v>
       </c>
-      <c r="C89" s="11" t="s">
+      <c r="D89" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="E89" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="F89" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="G89" s="12" t="s">
         <v>430</v>
       </c>
-      <c r="D89" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="E89" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="F89" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="G89" s="12" t="s">
-        <v>431</v>
-      </c>
       <c r="H89" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="I89" s="11" t="s">
         <v>33</v>
-      </c>
-      <c r="I89" s="11" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5077,28 +5096,28 @@
         <v>3839832</v>
       </c>
       <c r="B90" s="9" t="s">
+        <v>431</v>
+      </c>
+      <c r="C90" s="10" t="s">
         <v>432</v>
       </c>
-      <c r="C90" s="10" t="s">
+      <c r="D90" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E90" s="10" t="s">
         <v>433</v>
       </c>
-      <c r="D90" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="E90" s="10" t="s">
+      <c r="F90" s="10" t="s">
         <v>434</v>
       </c>
-      <c r="F90" s="10" t="s">
+      <c r="G90" s="12" t="s">
         <v>435</v>
       </c>
-      <c r="G90" s="12" t="s">
-        <v>436</v>
-      </c>
       <c r="H90" s="13" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I90" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5106,28 +5125,28 @@
         <v>1431741</v>
       </c>
       <c r="B91" s="9" t="s">
+        <v>436</v>
+      </c>
+      <c r="C91" s="31" t="s">
         <v>437</v>
       </c>
-      <c r="C91" s="31" t="s">
+      <c r="D91" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="E91" s="31" t="s">
         <v>438</v>
       </c>
-      <c r="D91" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="E91" s="31" t="s">
+      <c r="F91" s="31" t="s">
         <v>439</v>
       </c>
-      <c r="F91" s="31" t="s">
+      <c r="G91" s="32" t="s">
         <v>440</v>
       </c>
-      <c r="G91" s="32" t="s">
-        <v>441</v>
-      </c>
       <c r="H91" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="I91" s="10" t="s">
         <v>91</v>
-      </c>
-      <c r="I91" s="10" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5135,25 +5154,25 @@
         <v>3851035</v>
       </c>
       <c r="B92" s="9" t="s">
+        <v>441</v>
+      </c>
+      <c r="C92" s="10" t="s">
         <v>442</v>
       </c>
-      <c r="C92" s="10" t="s">
+      <c r="D92" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="E92" s="16" t="s">
         <v>443</v>
       </c>
-      <c r="D92" s="11" t="s">
-        <v>193</v>
-      </c>
-      <c r="E92" s="16" t="s">
+      <c r="F92" s="16" t="s">
         <v>444</v>
       </c>
-      <c r="F92" s="16" t="s">
+      <c r="G92" s="12" t="s">
         <v>445</v>
       </c>
-      <c r="G92" s="12" t="s">
-        <v>446</v>
-      </c>
       <c r="H92" s="13" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I92" s="13"/>
     </row>
@@ -5173,23 +5192,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AA15"/>
+  <dimension ref="A1:AA17"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G13" activeCellId="0" sqref="G13"/>
+      <selection pane="topLeft" activeCell="E17" activeCellId="0" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.6887755102041"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.9285714285714"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="21.1938775510204"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="17.5510204081633"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="51.7040816326531"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="18.0867346938776"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="25.9183673469388"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="28.484693877551"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.4183673469388"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.5255102040816"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.5204081632653"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="17.0102040816327"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="50.484693877551"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="17.5510204081633"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="25.2448979591837"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="27.8061224489796"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5197,25 +5215,25 @@
         <v>0</v>
       </c>
       <c r="B1" s="33" t="s">
+        <v>446</v>
+      </c>
+      <c r="C1" s="33" t="s">
         <v>447</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="D1" s="33" t="s">
         <v>448</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="E1" s="33" t="s">
         <v>449</v>
       </c>
-      <c r="E1" s="33" t="s">
+      <c r="F1" s="33" t="s">
         <v>450</v>
       </c>
-      <c r="F1" s="33" t="s">
+      <c r="G1" s="33" t="s">
         <v>451</v>
       </c>
-      <c r="G1" s="33" t="s">
+      <c r="H1" s="33" t="s">
         <v>452</v>
-      </c>
-      <c r="H1" s="33" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5223,25 +5241,25 @@
         <v>3839503</v>
       </c>
       <c r="B2" s="0" t="s">
+        <v>453</v>
+      </c>
+      <c r="C2" s="0" t="s">
         <v>454</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="D2" s="0" t="s">
         <v>455</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="E2" s="0" t="s">
         <v>456</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="F2" s="34" t="s">
         <v>457</v>
       </c>
-      <c r="F2" s="34" t="s">
+      <c r="G2" s="35" t="s">
         <v>458</v>
       </c>
-      <c r="G2" s="35" t="s">
-        <v>459</v>
-      </c>
       <c r="H2" s="35" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="I2" s="36"/>
       <c r="J2" s="37"/>
@@ -5252,25 +5270,25 @@
         <v>3836310</v>
       </c>
       <c r="B3" s="0" t="s">
+        <v>459</v>
+      </c>
+      <c r="C3" s="0" t="s">
         <v>460</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="D3" s="0" t="s">
         <v>461</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="E3" s="0" t="s">
         <v>462</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="F3" s="39" t="s">
         <v>463</v>
       </c>
-      <c r="F3" s="39" t="s">
-        <v>464</v>
-      </c>
       <c r="G3" s="35" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H3" s="35" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="I3" s="36"/>
       <c r="J3" s="37"/>
@@ -5281,25 +5299,25 @@
         <v>3846658</v>
       </c>
       <c r="B4" s="38" t="s">
+        <v>464</v>
+      </c>
+      <c r="C4" s="38" t="s">
         <v>465</v>
       </c>
-      <c r="C4" s="38" t="s">
+      <c r="D4" s="38" t="s">
         <v>466</v>
       </c>
-      <c r="D4" s="38" t="s">
+      <c r="E4" s="40" t="s">
         <v>467</v>
       </c>
-      <c r="E4" s="40" t="s">
+      <c r="F4" s="39" t="s">
         <v>468</v>
       </c>
-      <c r="F4" s="39" t="s">
-        <v>469</v>
-      </c>
       <c r="G4" s="35" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H4" s="35" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="I4" s="36"/>
       <c r="J4" s="37"/>
@@ -5310,25 +5328,25 @@
         <v>3832703</v>
       </c>
       <c r="B5" s="38" t="s">
+        <v>469</v>
+      </c>
+      <c r="C5" s="38" t="s">
         <v>470</v>
       </c>
-      <c r="C5" s="38" t="s">
+      <c r="D5" s="38" t="s">
         <v>471</v>
       </c>
-      <c r="D5" s="38" t="s">
+      <c r="E5" s="40" t="s">
         <v>472</v>
       </c>
-      <c r="E5" s="40" t="s">
+      <c r="F5" s="41" t="s">
         <v>473</v>
       </c>
-      <c r="F5" s="41" t="s">
-        <v>474</v>
-      </c>
       <c r="G5" s="35" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H5" s="35" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="I5" s="36"/>
       <c r="J5" s="37"/>
@@ -5339,25 +5357,25 @@
         <v>3833865</v>
       </c>
       <c r="B6" s="0" t="s">
+        <v>474</v>
+      </c>
+      <c r="C6" s="0" t="s">
         <v>475</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="D6" s="0" t="s">
         <v>476</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="E6" s="40" t="s">
         <v>477</v>
       </c>
-      <c r="E6" s="40" t="s">
+      <c r="F6" s="39" t="s">
         <v>478</v>
       </c>
-      <c r="F6" s="39" t="s">
-        <v>479</v>
-      </c>
       <c r="G6" s="35" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H6" s="35" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="I6" s="36"/>
       <c r="J6" s="37"/>
@@ -5368,22 +5386,22 @@
         <v>3828580</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C7" s="0" t="s">
+        <v>479</v>
+      </c>
+      <c r="E7" s="40" t="s">
         <v>480</v>
       </c>
-      <c r="E7" s="40" t="s">
+      <c r="F7" s="39" t="s">
+        <v>273</v>
+      </c>
+      <c r="G7" s="0" t="s">
         <v>481</v>
       </c>
-      <c r="F7" s="39" t="s">
-        <v>274</v>
-      </c>
-      <c r="G7" s="0" t="s">
+      <c r="H7" s="0" t="s">
         <v>482</v>
-      </c>
-      <c r="H7" s="0" t="s">
-        <v>483</v>
       </c>
       <c r="I7" s="42"/>
       <c r="J7" s="43"/>
@@ -5410,25 +5428,25 @@
         <v>3832446</v>
       </c>
       <c r="B8" s="0" t="s">
+        <v>483</v>
+      </c>
+      <c r="C8" s="0" t="s">
         <v>484</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="D8" s="0" t="s">
         <v>485</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="E8" s="40" t="s">
         <v>486</v>
       </c>
-      <c r="E8" s="40" t="s">
+      <c r="F8" s="34" t="s">
         <v>487</v>
       </c>
-      <c r="F8" s="34" t="s">
-        <v>488</v>
-      </c>
       <c r="G8" s="35" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H8" s="35" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="I8" s="36"/>
       <c r="J8" s="37"/>
@@ -5439,25 +5457,25 @@
         <v>3837287</v>
       </c>
       <c r="B9" s="0" t="s">
+        <v>488</v>
+      </c>
+      <c r="C9" s="0" t="s">
         <v>489</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="D9" s="0" t="s">
         <v>490</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="E9" s="40" t="s">
         <v>491</v>
       </c>
-      <c r="E9" s="40" t="s">
+      <c r="F9" s="39" t="s">
         <v>492</v>
       </c>
-      <c r="F9" s="39" t="s">
-        <v>493</v>
-      </c>
       <c r="G9" s="35" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H9" s="35" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="I9" s="36"/>
       <c r="J9" s="37"/>
@@ -5468,25 +5486,25 @@
         <v>3833277</v>
       </c>
       <c r="B10" s="38" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C10" s="38" t="s">
+        <v>493</v>
+      </c>
+      <c r="D10" s="38" t="s">
         <v>494</v>
       </c>
-      <c r="D10" s="38" t="s">
+      <c r="E10" s="40" t="s">
         <v>495</v>
       </c>
-      <c r="E10" s="40" t="s">
+      <c r="F10" s="39" t="s">
         <v>496</v>
       </c>
-      <c r="F10" s="39" t="s">
-        <v>497</v>
-      </c>
       <c r="G10" s="35" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H10" s="35" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5494,25 +5512,25 @@
         <v>3830067</v>
       </c>
       <c r="B11" s="42" t="s">
+        <v>497</v>
+      </c>
+      <c r="C11" s="42" t="s">
         <v>498</v>
       </c>
-      <c r="C11" s="42" t="s">
+      <c r="D11" s="42" t="s">
         <v>499</v>
       </c>
-      <c r="D11" s="42" t="s">
+      <c r="E11" s="40" t="s">
         <v>500</v>
       </c>
-      <c r="E11" s="40" t="s">
+      <c r="F11" s="39" t="s">
         <v>501</v>
       </c>
-      <c r="F11" s="39" t="s">
-        <v>502</v>
-      </c>
       <c r="G11" s="35" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H11" s="35" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5520,25 +5538,25 @@
         <v>3849225</v>
       </c>
       <c r="B12" s="38" t="s">
+        <v>502</v>
+      </c>
+      <c r="C12" s="38" t="s">
         <v>503</v>
       </c>
-      <c r="C12" s="38" t="s">
+      <c r="D12" s="38" t="s">
         <v>504</v>
       </c>
-      <c r="D12" s="38" t="s">
+      <c r="E12" s="38" t="s">
         <v>505</v>
       </c>
-      <c r="E12" s="38" t="s">
+      <c r="F12" s="39" t="s">
         <v>506</v>
       </c>
-      <c r="F12" s="39" t="s">
-        <v>507</v>
-      </c>
       <c r="G12" s="35" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H12" s="35" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5546,25 +5564,25 @@
         <v>3848360</v>
       </c>
       <c r="B13" s="38" t="s">
+        <v>507</v>
+      </c>
+      <c r="C13" s="38" t="s">
         <v>508</v>
       </c>
-      <c r="C13" s="38" t="s">
+      <c r="D13" s="38" t="s">
         <v>509</v>
       </c>
-      <c r="D13" s="38" t="s">
+      <c r="E13" s="40" t="s">
         <v>510</v>
       </c>
-      <c r="E13" s="40" t="s">
+      <c r="F13" s="39" t="s">
         <v>511</v>
       </c>
-      <c r="F13" s="39" t="s">
-        <v>512</v>
-      </c>
       <c r="G13" s="35" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H13" s="35" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5572,25 +5590,25 @@
         <v>3849610</v>
       </c>
       <c r="B14" s="38" t="s">
+        <v>512</v>
+      </c>
+      <c r="C14" s="38" t="s">
         <v>513</v>
       </c>
-      <c r="C14" s="38" t="s">
+      <c r="D14" s="38" t="s">
         <v>514</v>
       </c>
-      <c r="D14" s="38" t="s">
+      <c r="E14" s="44" t="s">
         <v>515</v>
       </c>
-      <c r="E14" s="44" t="s">
+      <c r="F14" s="39" t="s">
         <v>516</v>
       </c>
-      <c r="F14" s="39" t="s">
-        <v>517</v>
-      </c>
       <c r="G14" s="35" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H14" s="35" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5598,25 +5616,68 @@
         <v>3845667</v>
       </c>
       <c r="B15" s="38" t="s">
+        <v>517</v>
+      </c>
+      <c r="C15" s="38" t="s">
         <v>518</v>
       </c>
-      <c r="C15" s="38" t="s">
+      <c r="D15" s="38" t="s">
         <v>519</v>
       </c>
-      <c r="D15" s="38" t="s">
+      <c r="E15" s="44" t="s">
         <v>520</v>
       </c>
-      <c r="E15" s="44" t="s">
+      <c r="F15" s="39" t="s">
         <v>521</v>
       </c>
-      <c r="F15" s="39" t="s">
+      <c r="G15" s="35" t="s">
+        <v>458</v>
+      </c>
+      <c r="H15" s="35" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
+        <v>3103810</v>
+      </c>
+      <c r="B16" s="0" t="s">
         <v>522</v>
       </c>
-      <c r="G15" s="35" t="s">
-        <v>459</v>
-      </c>
-      <c r="H15" s="35" t="s">
-        <v>459</v>
+      <c r="C16" s="0" t="s">
+        <v>523</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>276</v>
+      </c>
+      <c r="F16" s="34" t="s">
+        <v>524</v>
+      </c>
+      <c r="G16" s="0" t="s">
+        <v>458</v>
+      </c>
+      <c r="H16" s="0" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
+        <v>3158864</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>525</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>526</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="G17" s="0" t="s">
+        <v>458</v>
+      </c>
+      <c r="H17" s="0" t="s">
+        <v>458</v>
       </c>
     </row>
   </sheetData>
